--- a/StructureDefinition-us-core-procedure.xlsx
+++ b/StructureDefinition-us-core-procedure.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19</t>
+    <t>2023-10-20</t>
   </si>
   <si>
     <t>Publisher</t>
